--- a/biology/Botanique/Philibertia/Philibertia.xlsx
+++ b/biology/Botanique/Philibertia/Philibertia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philibertia est un genre de plantes dicotylédones de la famille des Apocynaceae, sous-famille des Asclepiadoideae, originaire d'Amérique du Sud, qui comprend environ 40 espèces.
 Les espèces du genre Philibertia sont principalement distribuées dans les vallées inter-andines de Bolivie et d'Argentine, et peuvent atteindre des altitudes supérieures à 4000 mètres.
 Ce sont le plus souvent des plantes grimpantes dont les feuilles présentent généralement une pubescence dense sur la face abaxiale. Le limbe foliaire est profondément cordé à la base.
 Les fleurs ont généralement une corolle tubulaire ou campanulée, mais les autres organes floraux sont très variables.
-Le nom générique, « Philibertia », est un hommage au botaniste français J. C. Philibert[2].
+Le nom générique, « Philibertia », est un hommage au botaniste français J. C. Philibert.
 </t>
         </is>
       </c>
@@ -515,11 +527,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Philibertia compte 44 espèces reconnues, la dernière décrite en 2021 étant Philibertia woodii, ce qui en fait l'un des deux genres les plus riches en espèces de la sous-tribu des Oxypetalinae[3].
-Synonymes
-Selon Plants of the World online (POWO)                (16 janvier 2022)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Philibertia compte 44 espèces reconnues, la dernière décrite en 2021 étant Philibertia woodii, ce qui en fait l'un des deux genres les plus riches en espèces de la sous-tribu des Oxypetalinae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Philibertia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philibertia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (16 janvier 2022) :
 Amblystigma Benth.
 Aphanostelma Malme
 Brachylepis Hook. &amp; Arn.
@@ -533,8 +582,43 @@
 Stelmatocodon Schltr.
 Stigmamblys Kuntze
 Zosima Phil.
-Liste d'espèces
-Selon Plants of the World online (POWO)                (16 janvier 2022)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philibertia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philibertia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (16 janvier 2022) :
 Philibertia affinis (Griseb.) Goyder
 Philibertia alba Goyder
 Philibertia amblystigma Goyder
